--- a/MAPA FINAL/EQUIPES/areas.xlsx
+++ b/MAPA FINAL/EQUIPES/areas.xlsx
@@ -4,6 +4,7 @@
   <fileVersion appName="Calc"/>
   <sheets>
     <sheet name="mesclado" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="equipes" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
@@ -4940,4 +4941,3602 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <cols>
+    <col min="1" max="1024" width="15"/>
+    <col min="2" max="1024" width="15"/>
+    <col min="3" max="1024" width="15"/>
+    <col min="4" max="1024" width="15"/>
+    <col min="5" max="1024" width="15"/>
+    <col min="6" max="1024" width="15"/>
+    <col min="7" max="1024" width="15"/>
+    <col min="8" max="1024" width="15"/>
+    <col min="9" max="1024" width="15"/>
+    <col min="10" max="1024" width="15"/>
+    <col min="11" max="1024" width="15"/>
+    <col min="12" max="1024" width="15"/>
+    <col min="13" max="1024" width="15"/>
+    <col min="14" max="1024" width="15"/>
+    <col min="15" max="1024" width="15"/>
+    <col min="16" max="1024" width="15"/>
+    <col min="17" max="1024" width="15"/>
+    <col min="18" max="1024" width="15"/>
+    <col min="19" max="1024" width="15"/>
+    <col min="20" max="1024" width="15"/>
+    <col min="21" max="1024" width="15"/>
+    <col min="22" max="1024" width="15"/>
+    <col min="23" max="1024" width="15"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" t="s">
+        <v>47</v>
+      </c>
+      <c r="V6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
+        <v>65</v>
+      </c>
+      <c r="V10" t="s">
+        <v>67</v>
+      </c>
+      <c r="W10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" t="s">
+        <v>65</v>
+      </c>
+      <c r="V11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>-1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" t="s">
+        <v>77</v>
+      </c>
+      <c r="W12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>-1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13" t="s">
+        <v>82</v>
+      </c>
+      <c r="W13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>-1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V14" t="s">
+        <v>87</v>
+      </c>
+      <c r="W14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>-1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V15" t="s">
+        <v>92</v>
+      </c>
+      <c r="W15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>-1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>97</v>
+      </c>
+      <c r="O16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>99</v>
+      </c>
+      <c r="R16" t="s">
+        <v>99</v>
+      </c>
+      <c r="V16" t="s">
+        <v>97</v>
+      </c>
+      <c r="W16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>-1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>101</v>
+      </c>
+      <c r="O17" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>54</v>
+      </c>
+      <c r="R17" t="s">
+        <v>28</v>
+      </c>
+      <c r="V17" t="s">
+        <v>101</v>
+      </c>
+      <c r="W17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>-1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>105</v>
+      </c>
+      <c r="O18" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
+        <v>28</v>
+      </c>
+      <c r="V18" t="s">
+        <v>105</v>
+      </c>
+      <c r="W18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>-1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>110</v>
+      </c>
+      <c r="O19" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>54</v>
+      </c>
+      <c r="R19" t="s">
+        <v>28</v>
+      </c>
+      <c r="V19" t="s">
+        <v>110</v>
+      </c>
+      <c r="W19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>-1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>114</v>
+      </c>
+      <c r="O20" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>117</v>
+      </c>
+      <c r="R20" t="s">
+        <v>118</v>
+      </c>
+      <c r="V20" t="s">
+        <v>114</v>
+      </c>
+      <c r="W20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>-1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>120</v>
+      </c>
+      <c r="O21" t="s">
+        <v>47</v>
+      </c>
+      <c r="P21" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" t="s">
+        <v>28</v>
+      </c>
+      <c r="V21" t="s">
+        <v>120</v>
+      </c>
+      <c r="W21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>-1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>124</v>
+      </c>
+      <c r="O22" t="s">
+        <v>115</v>
+      </c>
+      <c r="P22" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>54</v>
+      </c>
+      <c r="R22" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" t="s">
+        <v>124</v>
+      </c>
+      <c r="W22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>-1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>128</v>
+      </c>
+      <c r="O23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P23" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" t="s">
+        <v>28</v>
+      </c>
+      <c r="V23" t="s">
+        <v>128</v>
+      </c>
+      <c r="W23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>-1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>133</v>
+      </c>
+      <c r="O24" t="s">
+        <v>135</v>
+      </c>
+      <c r="P24" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" t="s">
+        <v>28</v>
+      </c>
+      <c r="V24" t="s">
+        <v>133</v>
+      </c>
+      <c r="W24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>-1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>138</v>
+      </c>
+      <c r="O25" t="s">
+        <v>140</v>
+      </c>
+      <c r="P25" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" t="s">
+        <v>28</v>
+      </c>
+      <c r="V25" t="s">
+        <v>138</v>
+      </c>
+      <c r="W25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>-1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>143</v>
+      </c>
+      <c r="O26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P26" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" t="s">
+        <v>28</v>
+      </c>
+      <c r="V26" t="s">
+        <v>143</v>
+      </c>
+      <c r="W26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>-1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>147</v>
+      </c>
+      <c r="O27" t="s">
+        <v>135</v>
+      </c>
+      <c r="P27" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>99</v>
+      </c>
+      <c r="R27" t="s">
+        <v>99</v>
+      </c>
+      <c r="V27" t="s">
+        <v>147</v>
+      </c>
+      <c r="W27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>-1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>150</v>
+      </c>
+      <c r="O28" t="s">
+        <v>58</v>
+      </c>
+      <c r="P28" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>54</v>
+      </c>
+      <c r="R28" t="s">
+        <v>28</v>
+      </c>
+      <c r="V28" t="s">
+        <v>150</v>
+      </c>
+      <c r="W28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>-1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>154</v>
+      </c>
+      <c r="O29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P29" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>54</v>
+      </c>
+      <c r="R29" t="s">
+        <v>28</v>
+      </c>
+      <c r="V29" t="s">
+        <v>154</v>
+      </c>
+      <c r="W29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30">
+        <v>-1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>-1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>158</v>
+      </c>
+      <c r="O30" t="s">
+        <v>160</v>
+      </c>
+      <c r="P30" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>27</v>
+      </c>
+      <c r="R30" t="s">
+        <v>28</v>
+      </c>
+      <c r="V30" t="s">
+        <v>158</v>
+      </c>
+      <c r="W30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>-1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>163</v>
+      </c>
+      <c r="O31" t="s">
+        <v>165</v>
+      </c>
+      <c r="P31" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>54</v>
+      </c>
+      <c r="R31" t="s">
+        <v>28</v>
+      </c>
+      <c r="V31" t="s">
+        <v>163</v>
+      </c>
+      <c r="W31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>-1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>168</v>
+      </c>
+      <c r="O32" t="s">
+        <v>130</v>
+      </c>
+      <c r="P32" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>117</v>
+      </c>
+      <c r="R32" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" t="s">
+        <v>168</v>
+      </c>
+      <c r="W32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" t="s">
+        <v>173</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>-1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>172</v>
+      </c>
+      <c r="O33" t="s">
+        <v>37</v>
+      </c>
+      <c r="P33" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>54</v>
+      </c>
+      <c r="R33" t="s">
+        <v>28</v>
+      </c>
+      <c r="V33" t="s">
+        <v>172</v>
+      </c>
+      <c r="W33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>-1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>176</v>
+      </c>
+      <c r="O34" t="s">
+        <v>178</v>
+      </c>
+      <c r="P34" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>54</v>
+      </c>
+      <c r="R34" t="s">
+        <v>28</v>
+      </c>
+      <c r="V34" t="s">
+        <v>176</v>
+      </c>
+      <c r="W34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35">
+        <v>-1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>-1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>181</v>
+      </c>
+      <c r="O35" t="s">
+        <v>178</v>
+      </c>
+      <c r="P35" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>27</v>
+      </c>
+      <c r="R35" t="s">
+        <v>28</v>
+      </c>
+      <c r="V35" t="s">
+        <v>181</v>
+      </c>
+      <c r="W35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>-1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>185</v>
+      </c>
+      <c r="O36" t="s">
+        <v>135</v>
+      </c>
+      <c r="P36" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>54</v>
+      </c>
+      <c r="R36" t="s">
+        <v>28</v>
+      </c>
+      <c r="S36" t="s">
+        <v>187</v>
+      </c>
+      <c r="V36" t="s">
+        <v>185</v>
+      </c>
+      <c r="W36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" t="s">
+        <v>190</v>
+      </c>
+      <c r="G37">
+        <v>-1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>-1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>189</v>
+      </c>
+      <c r="O37" t="s">
+        <v>191</v>
+      </c>
+      <c r="P37" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>193</v>
+      </c>
+      <c r="R37" t="s">
+        <v>65</v>
+      </c>
+      <c r="V37" t="s">
+        <v>189</v>
+      </c>
+      <c r="W37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" t="s">
+        <v>196</v>
+      </c>
+      <c r="G38">
+        <v>-1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>-1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>195</v>
+      </c>
+      <c r="O38" t="s">
+        <v>191</v>
+      </c>
+      <c r="P38" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>54</v>
+      </c>
+      <c r="R38" t="s">
+        <v>28</v>
+      </c>
+      <c r="V38" t="s">
+        <v>195</v>
+      </c>
+      <c r="W38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" t="s">
+        <v>200</v>
+      </c>
+      <c r="G39">
+        <v>-1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>-1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>199</v>
+      </c>
+      <c r="O39" t="s">
+        <v>178</v>
+      </c>
+      <c r="P39" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>117</v>
+      </c>
+      <c r="R39" t="s">
+        <v>28</v>
+      </c>
+      <c r="V39" t="s">
+        <v>199</v>
+      </c>
+      <c r="W39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" t="s">
+        <v>204</v>
+      </c>
+      <c r="G40">
+        <v>-1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>-1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>203</v>
+      </c>
+      <c r="O40" t="s">
+        <v>205</v>
+      </c>
+      <c r="P40" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>54</v>
+      </c>
+      <c r="R40" t="s">
+        <v>28</v>
+      </c>
+      <c r="V40" t="s">
+        <v>203</v>
+      </c>
+      <c r="W40" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" t="s">
+        <v>209</v>
+      </c>
+      <c r="G41">
+        <v>-1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>-1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>208</v>
+      </c>
+      <c r="O41" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>54</v>
+      </c>
+      <c r="R41" t="s">
+        <v>28</v>
+      </c>
+      <c r="V41" t="s">
+        <v>208</v>
+      </c>
+      <c r="W41" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" t="s">
+        <v>213</v>
+      </c>
+      <c r="G42">
+        <v>-1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>-1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>212</v>
+      </c>
+      <c r="O42" t="s">
+        <v>32</v>
+      </c>
+      <c r="P42" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>193</v>
+      </c>
+      <c r="R42" t="s">
+        <v>28</v>
+      </c>
+      <c r="V42" t="s">
+        <v>212</v>
+      </c>
+      <c r="W42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43" t="s">
+        <v>217</v>
+      </c>
+      <c r="G43">
+        <v>-1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>-1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>216</v>
+      </c>
+      <c r="O43" t="s">
+        <v>107</v>
+      </c>
+      <c r="P43" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>117</v>
+      </c>
+      <c r="R43" t="s">
+        <v>28</v>
+      </c>
+      <c r="V43" t="s">
+        <v>216</v>
+      </c>
+      <c r="W43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G44">
+        <v>-1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>-1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>220</v>
+      </c>
+      <c r="O44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P44" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>117</v>
+      </c>
+      <c r="R44" t="s">
+        <v>28</v>
+      </c>
+      <c r="V44" t="s">
+        <v>220</v>
+      </c>
+      <c r="W44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" t="s">
+        <v>225</v>
+      </c>
+      <c r="G45">
+        <v>-1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>-1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>224</v>
+      </c>
+      <c r="O45" t="s">
+        <v>226</v>
+      </c>
+      <c r="P45" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>27</v>
+      </c>
+      <c r="R45" t="s">
+        <v>28</v>
+      </c>
+      <c r="V45" t="s">
+        <v>224</v>
+      </c>
+      <c r="W45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>229</v>
+      </c>
+      <c r="B46" t="s">
+        <v>230</v>
+      </c>
+      <c r="G46">
+        <v>-1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>-1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>229</v>
+      </c>
+      <c r="O46" t="s">
+        <v>226</v>
+      </c>
+      <c r="P46" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>54</v>
+      </c>
+      <c r="R46" t="s">
+        <v>28</v>
+      </c>
+      <c r="V46" t="s">
+        <v>229</v>
+      </c>
+      <c r="W46" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>233</v>
+      </c>
+      <c r="B47" t="s">
+        <v>234</v>
+      </c>
+      <c r="G47">
+        <v>-1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>-1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>233</v>
+      </c>
+      <c r="O47" t="s">
+        <v>235</v>
+      </c>
+      <c r="P47" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>27</v>
+      </c>
+      <c r="R47" t="s">
+        <v>28</v>
+      </c>
+      <c r="V47" t="s">
+        <v>233</v>
+      </c>
+      <c r="W47" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>238</v>
+      </c>
+      <c r="B48" t="s">
+        <v>239</v>
+      </c>
+      <c r="G48">
+        <v>-1</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>-1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>238</v>
+      </c>
+      <c r="O48" t="s">
+        <v>235</v>
+      </c>
+      <c r="P48" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>54</v>
+      </c>
+      <c r="R48" t="s">
+        <v>28</v>
+      </c>
+      <c r="V48" t="s">
+        <v>238</v>
+      </c>
+      <c r="W48" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>242</v>
+      </c>
+      <c r="B49" t="s">
+        <v>243</v>
+      </c>
+      <c r="G49">
+        <v>-1</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>-1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>242</v>
+      </c>
+      <c r="O49" t="s">
+        <v>235</v>
+      </c>
+      <c r="P49" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>117</v>
+      </c>
+      <c r="R49" t="s">
+        <v>28</v>
+      </c>
+      <c r="V49" t="s">
+        <v>242</v>
+      </c>
+      <c r="W49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" t="s">
+        <v>247</v>
+      </c>
+      <c r="G50">
+        <v>-1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>-1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>246</v>
+      </c>
+      <c r="O50" t="s">
+        <v>191</v>
+      </c>
+      <c r="P50" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>27</v>
+      </c>
+      <c r="R50" t="s">
+        <v>28</v>
+      </c>
+      <c r="V50" t="s">
+        <v>246</v>
+      </c>
+      <c r="W50" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>250</v>
+      </c>
+      <c r="B51" t="s">
+        <v>251</v>
+      </c>
+      <c r="G51">
+        <v>-1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>-1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>250</v>
+      </c>
+      <c r="O51" t="s">
+        <v>58</v>
+      </c>
+      <c r="P51" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>117</v>
+      </c>
+      <c r="R51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V51" t="s">
+        <v>250</v>
+      </c>
+      <c r="W51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>254</v>
+      </c>
+      <c r="B52" t="s">
+        <v>255</v>
+      </c>
+      <c r="G52">
+        <v>-1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>-1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>254</v>
+      </c>
+      <c r="O52" t="s">
+        <v>256</v>
+      </c>
+      <c r="P52" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>54</v>
+      </c>
+      <c r="R52" t="s">
+        <v>28</v>
+      </c>
+      <c r="V52" t="s">
+        <v>254</v>
+      </c>
+      <c r="W52" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>259</v>
+      </c>
+      <c r="B53" t="s">
+        <v>260</v>
+      </c>
+      <c r="G53">
+        <v>-1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>-1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>259</v>
+      </c>
+      <c r="O53" t="s">
+        <v>256</v>
+      </c>
+      <c r="P53" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>117</v>
+      </c>
+      <c r="R53" t="s">
+        <v>28</v>
+      </c>
+      <c r="V53" t="s">
+        <v>259</v>
+      </c>
+      <c r="W53" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B54" t="s">
+        <v>264</v>
+      </c>
+      <c r="G54">
+        <v>-1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>-1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>263</v>
+      </c>
+      <c r="O54" t="s">
+        <v>69</v>
+      </c>
+      <c r="P54" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>54</v>
+      </c>
+      <c r="R54" t="s">
+        <v>28</v>
+      </c>
+      <c r="V54" t="s">
+        <v>263</v>
+      </c>
+      <c r="W54" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B55" t="s">
+        <v>267</v>
+      </c>
+      <c r="G55">
+        <v>-1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>-1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>266</v>
+      </c>
+      <c r="O55" t="s">
+        <v>205</v>
+      </c>
+      <c r="P55" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>27</v>
+      </c>
+      <c r="R55" t="s">
+        <v>28</v>
+      </c>
+      <c r="V55" t="s">
+        <v>266</v>
+      </c>
+      <c r="W55" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>270</v>
+      </c>
+      <c r="B56" t="s">
+        <v>271</v>
+      </c>
+      <c r="G56">
+        <v>-1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>-1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>270</v>
+      </c>
+      <c r="O56" t="s">
+        <v>42</v>
+      </c>
+      <c r="P56" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>54</v>
+      </c>
+      <c r="R56" t="s">
+        <v>28</v>
+      </c>
+      <c r="V56" t="s">
+        <v>270</v>
+      </c>
+      <c r="W56" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>274</v>
+      </c>
+      <c r="B57" t="s">
+        <v>275</v>
+      </c>
+      <c r="G57">
+        <v>-1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>-1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>274</v>
+      </c>
+      <c r="O57" t="s">
+        <v>276</v>
+      </c>
+      <c r="P57" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>27</v>
+      </c>
+      <c r="R57" t="s">
+        <v>28</v>
+      </c>
+      <c r="V57" t="s">
+        <v>274</v>
+      </c>
+      <c r="W57" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>279</v>
+      </c>
+      <c r="B58" t="s">
+        <v>280</v>
+      </c>
+      <c r="G58">
+        <v>-1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>-1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>279</v>
+      </c>
+      <c r="O58" t="s">
+        <v>276</v>
+      </c>
+      <c r="P58" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>54</v>
+      </c>
+      <c r="R58" t="s">
+        <v>28</v>
+      </c>
+      <c r="V58" t="s">
+        <v>279</v>
+      </c>
+      <c r="W58" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>283</v>
+      </c>
+      <c r="B59" t="s">
+        <v>284</v>
+      </c>
+      <c r="G59">
+        <v>-1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>-1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>283</v>
+      </c>
+      <c r="O59" t="s">
+        <v>47</v>
+      </c>
+      <c r="P59" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>54</v>
+      </c>
+      <c r="R59" t="s">
+        <v>28</v>
+      </c>
+      <c r="V59" t="s">
+        <v>283</v>
+      </c>
+      <c r="W59" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>287</v>
+      </c>
+      <c r="B60" t="s">
+        <v>288</v>
+      </c>
+      <c r="G60">
+        <v>-1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>-1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>287</v>
+      </c>
+      <c r="O60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P60" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>54</v>
+      </c>
+      <c r="R60" t="s">
+        <v>28</v>
+      </c>
+      <c r="V60" t="s">
+        <v>287</v>
+      </c>
+      <c r="W60" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>291</v>
+      </c>
+      <c r="G61">
+        <v>-1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>-1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>291</v>
+      </c>
+      <c r="O61" t="s">
+        <v>115</v>
+      </c>
+      <c r="P61" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>27</v>
+      </c>
+      <c r="R61" t="s">
+        <v>293</v>
+      </c>
+      <c r="V61" t="s">
+        <v>291</v>
+      </c>
+      <c r="W61" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>295</v>
+      </c>
+      <c r="B62" t="s">
+        <v>296</v>
+      </c>
+      <c r="G62">
+        <v>-1</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>-1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>295</v>
+      </c>
+      <c r="O62" t="s">
+        <v>191</v>
+      </c>
+      <c r="P62" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>117</v>
+      </c>
+      <c r="R62" t="s">
+        <v>28</v>
+      </c>
+      <c r="V62" t="s">
+        <v>295</v>
+      </c>
+      <c r="W62" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>299</v>
+      </c>
+      <c r="B63" t="s">
+        <v>300</v>
+      </c>
+      <c r="G63">
+        <v>-1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>-1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>299</v>
+      </c>
+      <c r="O63" t="s">
+        <v>69</v>
+      </c>
+      <c r="P63" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>117</v>
+      </c>
+      <c r="R63" t="s">
+        <v>28</v>
+      </c>
+      <c r="V63" t="s">
+        <v>299</v>
+      </c>
+      <c r="W63" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>302</v>
+      </c>
+      <c r="B64" t="s">
+        <v>303</v>
+      </c>
+      <c r="G64">
+        <v>-1</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>-1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>302</v>
+      </c>
+      <c r="O64" t="s">
+        <v>94</v>
+      </c>
+      <c r="P64" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>117</v>
+      </c>
+      <c r="R64" t="s">
+        <v>65</v>
+      </c>
+      <c r="V64" t="s">
+        <v>302</v>
+      </c>
+      <c r="W64" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>305</v>
+      </c>
+      <c r="B65" t="s">
+        <v>306</v>
+      </c>
+      <c r="G65">
+        <v>-1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>-1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>305</v>
+      </c>
+      <c r="O65" t="s">
+        <v>256</v>
+      </c>
+      <c r="P65" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>27</v>
+      </c>
+      <c r="R65" t="s">
+        <v>28</v>
+      </c>
+      <c r="V65" t="s">
+        <v>305</v>
+      </c>
+      <c r="W65" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>309</v>
+      </c>
+      <c r="B66" t="s">
+        <v>310</v>
+      </c>
+      <c r="G66">
+        <v>-1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>-1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>309</v>
+      </c>
+      <c r="O66" t="s">
+        <v>89</v>
+      </c>
+      <c r="P66" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>117</v>
+      </c>
+      <c r="R66" t="s">
+        <v>65</v>
+      </c>
+      <c r="V66" t="s">
+        <v>309</v>
+      </c>
+      <c r="W66" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>313</v>
+      </c>
+      <c r="B67" t="s">
+        <v>314</v>
+      </c>
+      <c r="G67">
+        <v>-1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>-1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>313</v>
+      </c>
+      <c r="O67" t="s">
+        <v>89</v>
+      </c>
+      <c r="P67" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>27</v>
+      </c>
+      <c r="R67" t="s">
+        <v>28</v>
+      </c>
+      <c r="V67" t="s">
+        <v>313</v>
+      </c>
+      <c r="W67" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>317</v>
+      </c>
+      <c r="B68" t="s">
+        <v>318</v>
+      </c>
+      <c r="G68">
+        <v>-1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>-1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>317</v>
+      </c>
+      <c r="O68" t="s">
+        <v>42</v>
+      </c>
+      <c r="P68" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>117</v>
+      </c>
+      <c r="R68" t="s">
+        <v>320</v>
+      </c>
+      <c r="V68" t="s">
+        <v>317</v>
+      </c>
+      <c r="W68" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>322</v>
+      </c>
+      <c r="B69" t="s">
+        <v>323</v>
+      </c>
+      <c r="G69">
+        <v>-1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>-1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>322</v>
+      </c>
+      <c r="O69" t="s">
+        <v>140</v>
+      </c>
+      <c r="P69" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>54</v>
+      </c>
+      <c r="R69" t="s">
+        <v>28</v>
+      </c>
+      <c r="V69" t="s">
+        <v>322</v>
+      </c>
+      <c r="W69" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>326</v>
+      </c>
+      <c r="G70">
+        <v>-1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>-1</v>
+      </c>
+      <c r="L70" t="s">
+        <v>327</v>
+      </c>
+      <c r="O70" t="s">
+        <v>205</v>
+      </c>
+      <c r="R70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V70" t="s">
+        <v>326</v>
+      </c>
+      <c r="W70" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>327</v>
+      </c>
+      <c r="O71" t="s">
+        <v>205</v>
+      </c>
+      <c r="P71" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>326</v>
+      </c>
+      <c r="V71" t="s">
+        <v>327</v>
+      </c>
+      <c r="W71" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>331</v>
+      </c>
+      <c r="B72" t="s">
+        <v>62</v>
+      </c>
+      <c r="G72">
+        <v>-1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>-1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>63</v>
+      </c>
+      <c r="V72" t="s">
+        <v>331</v>
+      </c>
+      <c r="W72" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>333</v>
+      </c>
+      <c r="L73" t="s">
+        <v>333</v>
+      </c>
+      <c r="N73" t="s">
+        <v>333</v>
+      </c>
+      <c r="O73" t="s">
+        <v>334</v>
+      </c>
+      <c r="V73" t="s">
+        <v>333</v>
+      </c>
+      <c r="W73" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>336</v>
+      </c>
+      <c r="G74">
+        <v>-1</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>-1</v>
+      </c>
+      <c r="V74" t="s">
+        <v>336</v>
+      </c>
+      <c r="W74" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>338</v>
+      </c>
+      <c r="V75" t="s">
+        <v>338</v>
+      </c>
+      <c r="W75" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>336</v>
+      </c>
+      <c r="O76" t="s">
+        <v>256</v>
+      </c>
+      <c r="V76" t="s">
+        <v>340</v>
+      </c>
+      <c r="W76" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>342</v>
+      </c>
+      <c r="V77" t="s">
+        <v>342</v>
+      </c>
+      <c r="W77" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>344</v>
+      </c>
+      <c r="G78">
+        <v>-1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>-1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>344</v>
+      </c>
+      <c r="O78" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>27</v>
+      </c>
+      <c r="R78" t="s">
+        <v>28</v>
+      </c>
+      <c r="V78" t="s">
+        <v>344</v>
+      </c>
+      <c r="W78" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>346</v>
+      </c>
+      <c r="G79">
+        <v>-1</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>-1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>346</v>
+      </c>
+      <c r="O79" t="s">
+        <v>135</v>
+      </c>
+      <c r="P79" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>193</v>
+      </c>
+      <c r="R79" t="s">
+        <v>28</v>
+      </c>
+      <c r="V79" t="s">
+        <v>346</v>
+      </c>
+      <c r="W79" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>349</v>
+      </c>
+      <c r="G80">
+        <v>-1</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>-1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>349</v>
+      </c>
+      <c r="O80" t="s">
+        <v>89</v>
+      </c>
+      <c r="P80" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>99</v>
+      </c>
+      <c r="R80" t="s">
+        <v>99</v>
+      </c>
+      <c r="V80" t="s">
+        <v>349</v>
+      </c>
+      <c r="W80" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>351</v>
+      </c>
+      <c r="G81">
+        <v>-1</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>-1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>351</v>
+      </c>
+      <c r="O81" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>193</v>
+      </c>
+      <c r="V81" t="s">
+        <v>351</v>
+      </c>
+      <c r="W81" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>353</v>
+      </c>
+      <c r="L82" t="s">
+        <v>353</v>
+      </c>
+      <c r="O82" t="s">
+        <v>205</v>
+      </c>
+      <c r="V82" t="s">
+        <v>353</v>
+      </c>
+      <c r="W82" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>355</v>
+      </c>
+      <c r="L83" t="s">
+        <v>355</v>
+      </c>
+      <c r="N83" t="s">
+        <v>355</v>
+      </c>
+      <c r="O83" t="s">
+        <v>115</v>
+      </c>
+      <c r="P83" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>193</v>
+      </c>
+      <c r="R83" t="s">
+        <v>293</v>
+      </c>
+      <c r="V83" t="s">
+        <v>355</v>
+      </c>
+      <c r="W83" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>129</v>
+      </c>
+      <c r="F84" t="s">
+        <v>358</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>-1</v>
+      </c>
+      <c r="M84" t="s">
+        <v>128</v>
+      </c>
+      <c r="N84" t="s">
+        <v>359</v>
+      </c>
+      <c r="O84" t="s">
+        <v>131</v>
+      </c>
+      <c r="P84" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>28</v>
+      </c>
+      <c r="U84" t="s">
+        <v>130</v>
+      </c>
+      <c r="V84" t="s">
+        <v>355</v>
+      </c>
+      <c r="W84" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>360</v>
+      </c>
+      <c r="B85" t="s">
+        <v>361</v>
+      </c>
+      <c r="G85">
+        <v>-1</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>-1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>360</v>
+      </c>
+      <c r="O85" t="s">
+        <v>52</v>
+      </c>
+      <c r="P85" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>193</v>
+      </c>
+      <c r="R85" t="s">
+        <v>28</v>
+      </c>
+      <c r="V85" t="s">
+        <v>363</v>
+      </c>
+      <c r="W85" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>360</v>
+      </c>
+      <c r="B86" t="s">
+        <v>361</v>
+      </c>
+      <c r="N86" t="s">
+        <v>360</v>
+      </c>
+      <c r="O86" t="s">
+        <v>52</v>
+      </c>
+      <c r="P86" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>193</v>
+      </c>
+      <c r="R86" t="s">
+        <v>28</v>
+      </c>
+      <c r="V86" t="s">
+        <v>363</v>
+      </c>
+      <c r="W86" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>365</v>
+      </c>
+      <c r="B87" t="s">
+        <v>366</v>
+      </c>
+      <c r="G87">
+        <v>-1</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>-1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>365</v>
+      </c>
+      <c r="O87" t="s">
+        <v>52</v>
+      </c>
+      <c r="P87" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>27</v>
+      </c>
+      <c r="R87" t="s">
+        <v>28</v>
+      </c>
+      <c r="V87" t="s">
+        <v>368</v>
+      </c>
+      <c r="W87" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>370</v>
+      </c>
+      <c r="B88" t="s">
+        <v>371</v>
+      </c>
+      <c r="G88">
+        <v>-1</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>-1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>370</v>
+      </c>
+      <c r="O88" t="s">
+        <v>52</v>
+      </c>
+      <c r="P88" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>117</v>
+      </c>
+      <c r="R88" t="s">
+        <v>28</v>
+      </c>
+      <c r="V88" t="s">
+        <v>373</v>
+      </c>
+      <c r="W88" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>375</v>
+      </c>
+      <c r="B89" t="s">
+        <v>376</v>
+      </c>
+      <c r="G89">
+        <v>-1</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>-1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>375</v>
+      </c>
+      <c r="O89" t="s">
+        <v>52</v>
+      </c>
+      <c r="P89" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>378</v>
+      </c>
+      <c r="R89" t="s">
+        <v>28</v>
+      </c>
+      <c r="V89" t="s">
+        <v>379</v>
+      </c>
+      <c r="W89" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>381</v>
+      </c>
+      <c r="B90" t="s">
+        <v>382</v>
+      </c>
+      <c r="G90">
+        <v>-1</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>-1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>381</v>
+      </c>
+      <c r="O90" t="s">
+        <v>52</v>
+      </c>
+      <c r="P90" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>384</v>
+      </c>
+      <c r="R90" t="s">
+        <v>28</v>
+      </c>
+      <c r="V90" t="s">
+        <v>385</v>
+      </c>
+      <c r="W90" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="V91" t="s">
+        <v>385</v>
+      </c>
+      <c r="W91" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>381</v>
+      </c>
+      <c r="B92" t="s">
+        <v>382</v>
+      </c>
+      <c r="N92" t="s">
+        <v>381</v>
+      </c>
+      <c r="O92" t="s">
+        <v>52</v>
+      </c>
+      <c r="P92" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>384</v>
+      </c>
+      <c r="R92" t="s">
+        <v>28</v>
+      </c>
+      <c r="V92" t="s">
+        <v>385</v>
+      </c>
+      <c r="W92" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>387</v>
+      </c>
+      <c r="B93" t="s">
+        <v>388</v>
+      </c>
+      <c r="G93">
+        <v>-1</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>-1</v>
+      </c>
+      <c r="N93" t="s">
+        <v>387</v>
+      </c>
+      <c r="O93" t="s">
+        <v>389</v>
+      </c>
+      <c r="P93" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>27</v>
+      </c>
+      <c r="R93" t="s">
+        <v>28</v>
+      </c>
+      <c r="V93" t="s">
+        <v>391</v>
+      </c>
+      <c r="W93" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>393</v>
+      </c>
+      <c r="B94" t="s">
+        <v>394</v>
+      </c>
+      <c r="G94">
+        <v>-1</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>-1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>393</v>
+      </c>
+      <c r="O94" t="s">
+        <v>395</v>
+      </c>
+      <c r="P94" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>27</v>
+      </c>
+      <c r="R94" t="s">
+        <v>65</v>
+      </c>
+      <c r="V94" t="s">
+        <v>397</v>
+      </c>
+      <c r="W94" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>399</v>
+      </c>
+      <c r="B95" t="s">
+        <v>400</v>
+      </c>
+      <c r="G95">
+        <v>-1</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>-1</v>
+      </c>
+      <c r="N95" t="s">
+        <v>399</v>
+      </c>
+      <c r="O95" t="s">
+        <v>395</v>
+      </c>
+      <c r="P95" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>54</v>
+      </c>
+      <c r="R95" t="s">
+        <v>28</v>
+      </c>
+      <c r="V95" t="s">
+        <v>402</v>
+      </c>
+      <c r="W95" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>404</v>
+      </c>
+      <c r="B96" t="s">
+        <v>405</v>
+      </c>
+      <c r="G96">
+        <v>-1</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>-1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>404</v>
+      </c>
+      <c r="O96" t="s">
+        <v>395</v>
+      </c>
+      <c r="P96" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>193</v>
+      </c>
+      <c r="R96" t="s">
+        <v>28</v>
+      </c>
+      <c r="V96" t="s">
+        <v>407</v>
+      </c>
+      <c r="W96" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>409</v>
+      </c>
+      <c r="B97" t="s">
+        <v>410</v>
+      </c>
+      <c r="G97">
+        <v>-1</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>-1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>409</v>
+      </c>
+      <c r="O97" t="s">
+        <v>395</v>
+      </c>
+      <c r="P97" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>378</v>
+      </c>
+      <c r="R97" t="s">
+        <v>28</v>
+      </c>
+      <c r="V97" t="s">
+        <v>412</v>
+      </c>
+      <c r="W97" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>414</v>
+      </c>
+      <c r="B98" t="s">
+        <v>415</v>
+      </c>
+      <c r="G98">
+        <v>-1</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>-1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>414</v>
+      </c>
+      <c r="O98" t="s">
+        <v>395</v>
+      </c>
+      <c r="P98" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>117</v>
+      </c>
+      <c r="R98" t="s">
+        <v>28</v>
+      </c>
+      <c r="V98" t="s">
+        <v>417</v>
+      </c>
+      <c r="W98" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>419</v>
+      </c>
+      <c r="B99" t="s">
+        <v>420</v>
+      </c>
+      <c r="G99">
+        <v>-1</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>-1</v>
+      </c>
+      <c r="N99" t="s">
+        <v>419</v>
+      </c>
+      <c r="O99" t="s">
+        <v>395</v>
+      </c>
+      <c r="P99" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>99</v>
+      </c>
+      <c r="R99" t="s">
+        <v>99</v>
+      </c>
+      <c r="V99" t="s">
+        <v>421</v>
+      </c>
+      <c r="W99" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>423</v>
+      </c>
+      <c r="B100" t="s">
+        <v>424</v>
+      </c>
+      <c r="G100">
+        <v>-1</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>-1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>423</v>
+      </c>
+      <c r="O100" t="s">
+        <v>395</v>
+      </c>
+      <c r="P100" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>99</v>
+      </c>
+      <c r="R100" t="s">
+        <v>99</v>
+      </c>
+      <c r="V100" t="s">
+        <v>425</v>
+      </c>
+      <c r="W100" t="s">
+        <v>426</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>